--- a/tables/treatmentDemand/currentTrends/education.xlsx
+++ b/tables/treatmentDemand/currentTrends/education.xlsx
@@ -30,21 +30,6 @@
     <t>Year of Treatment</t>
   </si>
   <si>
-    <t>Never went to school / never completed primary school (ISCED 0)</t>
-  </si>
-  <si>
-    <t>Primary level of education (ISCED 1)</t>
-  </si>
-  <si>
-    <t>Secondary level of education (ISCED 2 and ISCED 3)</t>
-  </si>
-  <si>
-    <t>Higher education (ISCED 4 to ISCED 6)</t>
-  </si>
-  <si>
-    <t>Not known / missing</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -136,6 +121,21 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Never went to school</t>
+  </si>
+  <si>
+    <t>Primary education</t>
+  </si>
+  <si>
+    <t>Secondary education</t>
+  </si>
+  <si>
+    <t>Higher education</t>
+  </si>
+  <si>
+    <t>Not known</t>
   </si>
 </sst>
 </file>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,22 +493,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>0</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2017</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2017</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2017</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>2017</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>2017</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>2017</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2017</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>2017</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>2017</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>2016</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>2017</v>
